--- a/Squads/E0/Fulham_Man City_squad.xlsx
+++ b/Squads/E0/Fulham_Man City_squad.xlsx
@@ -90,142 +90,142 @@
     <t>Aer%</t>
   </si>
   <si>
-    <t>1878</t>
-  </si>
-  <si>
-    <t>2089</t>
-  </si>
-  <si>
-    <t>2252</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>1935</t>
-  </si>
-  <si>
-    <t>2570</t>
-  </si>
-  <si>
-    <t>954</t>
-  </si>
-  <si>
-    <t>2047</t>
-  </si>
-  <si>
-    <t>737</t>
-  </si>
-  <si>
-    <t>2044</t>
-  </si>
-  <si>
-    <t>2049</t>
-  </si>
-  <si>
-    <t>2085</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>449</t>
-  </si>
-  <si>
-    <t>1146</t>
-  </si>
-  <si>
-    <t>1360</t>
-  </si>
-  <si>
-    <t>1425</t>
-  </si>
-  <si>
-    <t>688</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1278</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>671</t>
-  </si>
-  <si>
-    <t>1120</t>
-  </si>
-  <si>
-    <t>2390</t>
-  </si>
-  <si>
-    <t>2519</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>607</t>
-  </si>
-  <si>
-    <t>2332</t>
-  </si>
-  <si>
-    <t>2540</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>1697</t>
-  </si>
-  <si>
-    <t>2438</t>
-  </si>
-  <si>
-    <t>2567</t>
-  </si>
-  <si>
-    <t>819</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>1367</t>
-  </si>
-  <si>
-    <t>1023</t>
-  </si>
-  <si>
-    <t>1641</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>651</t>
-  </si>
-  <si>
-    <t>923</t>
-  </si>
-  <si>
-    <t>1325</t>
-  </si>
-  <si>
-    <t>1782</t>
-  </si>
-  <si>
-    <t>1849</t>
+    <t>1897</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2275</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>2595</t>
+  </si>
+  <si>
+    <t>962</t>
+  </si>
+  <si>
+    <t>2068</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>744</t>
+  </si>
+  <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>2065</t>
+  </si>
+  <si>
+    <t>2070</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>1288</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>1155</t>
+  </si>
+  <si>
+    <t>1372</t>
+  </si>
+  <si>
+    <t>1437</t>
+  </si>
+  <si>
+    <t>695</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>2414</t>
+  </si>
+  <si>
+    <t>2543</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>613</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>2355</t>
+  </si>
+  <si>
+    <t>2564</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>1714</t>
+  </si>
+  <si>
+    <t>2462</t>
+  </si>
+  <si>
+    <t>2592</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1379</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>1657</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>658</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>1337</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>1867</t>
   </si>
   <si>
     <t>João Palhinha</t>
@@ -252,21 +252,27 @@
     <t>Harrison Reed</t>
   </si>
   <si>
+    <t>Antonee Robinson</t>
+  </si>
+  <si>
     <t>Ederson</t>
   </si>
   <si>
+    <t>Issa Diop</t>
+  </si>
+  <si>
     <t>Tim Ream</t>
   </si>
   <si>
     <t>Bobby Reid</t>
   </si>
   <si>
-    <t>Antonee Robinson</t>
-  </si>
-  <si>
     <t>Manuel Akanji</t>
   </si>
   <si>
+    <t>Mateo Kovačić</t>
+  </si>
+  <si>
     <t>Timothy Castagne</t>
   </si>
   <si>
@@ -285,18 +291,12 @@
     <t>Joško Gvardiol</t>
   </si>
   <si>
-    <t>Mateo Kovačić</t>
-  </si>
-  <si>
     <t>Tosin Adarabioyo</t>
   </si>
   <si>
     <t>Tom Cairney</t>
   </si>
   <si>
-    <t>Issa Diop</t>
-  </si>
-  <si>
     <t>Alex Iwobi</t>
   </si>
   <si>
@@ -312,6 +312,9 @@
     <t>Kevin De Bruyne</t>
   </si>
   <si>
+    <t>Phil Foden</t>
+  </si>
+  <si>
     <t>John Stones</t>
   </si>
   <si>
@@ -330,9 +333,6 @@
     <t>Willian</t>
   </si>
   <si>
-    <t>Phil Foden</t>
-  </si>
-  <si>
     <t>Erling Haaland</t>
   </si>
   <si>
@@ -387,12 +387,18 @@
     <t>us USA</t>
   </si>
   <si>
+    <t>fr FRA</t>
+  </si>
+  <si>
     <t>jm JAM</t>
   </si>
   <si>
     <t>ch SUI</t>
   </si>
   <si>
+    <t>hr CRO</t>
+  </si>
+  <si>
     <t>be BEL</t>
   </si>
   <si>
@@ -405,15 +411,9 @@
     <t>rs SRB</t>
   </si>
   <si>
-    <t>hr CRO</t>
-  </si>
-  <si>
     <t>sct SCO</t>
   </si>
   <si>
-    <t>fr FRA</t>
-  </si>
-  <si>
     <t>nl NED</t>
   </si>
   <si>
@@ -456,142 +456,142 @@
     <t>eng Premier League</t>
   </si>
   <si>
-    <t>28-303</t>
-  </si>
-  <si>
-    <t>27-320</t>
-  </si>
-  <si>
-    <t>29-271</t>
-  </si>
-  <si>
-    <t>24-128</t>
-  </si>
-  <si>
-    <t>28-127</t>
-  </si>
-  <si>
-    <t>27-046</t>
-  </si>
-  <si>
-    <t>28-240</t>
-  </si>
-  <si>
-    <t>29-101</t>
-  </si>
-  <si>
-    <t>30-264</t>
-  </si>
-  <si>
-    <t>36-215</t>
-  </si>
-  <si>
-    <t>31-095</t>
-  </si>
-  <si>
-    <t>26-273</t>
-  </si>
-  <si>
-    <t>28-293</t>
-  </si>
-  <si>
-    <t>28-154</t>
-  </si>
-  <si>
-    <t>33-002</t>
-  </si>
-  <si>
-    <t>32-064</t>
-  </si>
-  <si>
-    <t>27-268</t>
-  </si>
-  <si>
-    <t>21-346</t>
-  </si>
-  <si>
-    <t>22-105</t>
-  </si>
-  <si>
-    <t>30-001</t>
-  </si>
-  <si>
-    <t>26-226</t>
-  </si>
-  <si>
-    <t>33-108</t>
-  </si>
-  <si>
-    <t>27-119</t>
-  </si>
-  <si>
-    <t>28-004</t>
-  </si>
-  <si>
-    <t>28-211</t>
-  </si>
-  <si>
-    <t>29-043</t>
-  </si>
-  <si>
-    <t>24-097</t>
-  </si>
-  <si>
-    <t>32-314</t>
-  </si>
-  <si>
-    <t>29-345</t>
-  </si>
-  <si>
-    <t>33-345</t>
-  </si>
-  <si>
-    <t>27-125</t>
-  </si>
-  <si>
-    <t>23-003</t>
-  </si>
-  <si>
-    <t>28-103</t>
-  </si>
-  <si>
-    <t>35-272</t>
-  </si>
-  <si>
-    <t>23-345</t>
-  </si>
-  <si>
-    <t>23-291</t>
-  </si>
-  <si>
-    <t>19-168</t>
-  </si>
-  <si>
-    <t>19-034</t>
-  </si>
-  <si>
-    <t>29-234</t>
-  </si>
-  <si>
-    <t>29-079</t>
-  </si>
-  <si>
-    <t>20-300</t>
-  </si>
-  <si>
-    <t>26-359</t>
-  </si>
-  <si>
-    <t>23-246</t>
-  </si>
-  <si>
-    <t>29-346</t>
-  </si>
-  <si>
-    <t>25-254</t>
-  </si>
-  <si>
-    <t>31-183</t>
+    <t>28-315</t>
+  </si>
+  <si>
+    <t>27-332</t>
+  </si>
+  <si>
+    <t>29-283</t>
+  </si>
+  <si>
+    <t>24-140</t>
+  </si>
+  <si>
+    <t>28-139</t>
+  </si>
+  <si>
+    <t>27-058</t>
+  </si>
+  <si>
+    <t>28-252</t>
+  </si>
+  <si>
+    <t>29-113</t>
+  </si>
+  <si>
+    <t>26-285</t>
+  </si>
+  <si>
+    <t>30-276</t>
+  </si>
+  <si>
+    <t>27-131</t>
+  </si>
+  <si>
+    <t>36-227</t>
+  </si>
+  <si>
+    <t>31-107</t>
+  </si>
+  <si>
+    <t>28-305</t>
+  </si>
+  <si>
+    <t>30-013</t>
+  </si>
+  <si>
+    <t>28-166</t>
+  </si>
+  <si>
+    <t>33-014</t>
+  </si>
+  <si>
+    <t>32-076</t>
+  </si>
+  <si>
+    <t>27-280</t>
+  </si>
+  <si>
+    <t>21-358</t>
+  </si>
+  <si>
+    <t>22-117</t>
+  </si>
+  <si>
+    <t>26-238</t>
+  </si>
+  <si>
+    <t>33-120</t>
+  </si>
+  <si>
+    <t>28-016</t>
+  </si>
+  <si>
+    <t>28-223</t>
+  </si>
+  <si>
+    <t>29-055</t>
+  </si>
+  <si>
+    <t>24-109</t>
+  </si>
+  <si>
+    <t>32-326</t>
+  </si>
+  <si>
+    <t>23-357</t>
+  </si>
+  <si>
+    <t>29-357</t>
+  </si>
+  <si>
+    <t>33-357</t>
+  </si>
+  <si>
+    <t>27-137</t>
+  </si>
+  <si>
+    <t>23-015</t>
+  </si>
+  <si>
+    <t>28-115</t>
+  </si>
+  <si>
+    <t>35-284</t>
+  </si>
+  <si>
+    <t>23-303</t>
+  </si>
+  <si>
+    <t>19-180</t>
+  </si>
+  <si>
+    <t>19-046</t>
+  </si>
+  <si>
+    <t>29-246</t>
+  </si>
+  <si>
+    <t>29-091</t>
+  </si>
+  <si>
+    <t>20-312</t>
+  </si>
+  <si>
+    <t>27-005</t>
+  </si>
+  <si>
+    <t>23-258</t>
+  </si>
+  <si>
+    <t>29-358</t>
+  </si>
+  <si>
+    <t>25-266</t>
+  </si>
+  <si>
+    <t>31-195</t>
   </si>
   <si>
     <t>1995</t>
@@ -851,7 +851,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>1982.0</v>
+        <v>2001.0</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -875,7 +875,7 @@
         <v>193</v>
       </c>
       <c r="J2" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="K2" t="n">
         <v>13.0</v>
@@ -890,7 +890,7 @@
         <v>50.0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.0</v>
+        <v>56.0</v>
       </c>
       <c r="P2" t="n">
         <v>2.0</v>
@@ -899,10 +899,10 @@
         <v>4.0</v>
       </c>
       <c r="R2" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="S2" t="n">
-        <v>73.0</v>
+        <v>75.0</v>
       </c>
       <c r="T2" t="n">
         <v>0.0</v>
@@ -914,16 +914,16 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>189.0</v>
+        <v>191.0</v>
       </c>
       <c r="X2" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="Y2" t="n">
         <v>31.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>55.1</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="3">
@@ -931,7 +931,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>2204.0</v>
+        <v>2226.0</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
@@ -955,7 +955,7 @@
         <v>194</v>
       </c>
       <c r="J3" t="n">
-        <v>29.6</v>
+        <v>31.6</v>
       </c>
       <c r="K3" t="n">
         <v>8.0</v>
@@ -967,22 +967,22 @@
         <v>0.0</v>
       </c>
       <c r="N3" t="n">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
       <c r="O3" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="P3" t="n">
         <v>6.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="S3" t="n">
-        <v>39.0</v>
+        <v>43.0</v>
       </c>
       <c r="T3" t="n">
         <v>1.0</v>
@@ -994,16 +994,16 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>212.0</v>
+        <v>228.0</v>
       </c>
       <c r="X3" t="n">
-        <v>51.0</v>
+        <v>53.0</v>
       </c>
       <c r="Y3" t="n">
         <v>22.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>69.9</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="4">
@@ -1011,7 +1011,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>2376.0</v>
+        <v>2399.0</v>
       </c>
       <c r="C4" t="s">
         <v>73</v>
@@ -1035,10 +1035,10 @@
         <v>195</v>
       </c>
       <c r="J4" t="n">
-        <v>25.6</v>
+        <v>27.6</v>
       </c>
       <c r="K4" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
@@ -1047,19 +1047,19 @@
         <v>0.0</v>
       </c>
       <c r="N4" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="P4" t="n">
         <v>3.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.0</v>
+        <v>82.0</v>
       </c>
       <c r="R4" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="S4" t="n">
         <v>23.0</v>
@@ -1074,16 +1074,16 @@
         <v>0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>90.0</v>
+        <v>97.0</v>
       </c>
       <c r="X4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y4" t="n">
         <v>9.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>10.0</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="5">
@@ -1091,7 +1091,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>230.0</v>
+        <v>233.0</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -1115,7 +1115,7 @@
         <v>196</v>
       </c>
       <c r="J5" t="n">
-        <v>23.6</v>
+        <v>24.6</v>
       </c>
       <c r="K5" t="n">
         <v>6.0</v>
@@ -1142,7 +1142,7 @@
         <v>28.0</v>
       </c>
       <c r="S5" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="T5" t="n">
         <v>0.0</v>
@@ -1154,7 +1154,7 @@
         <v>0.0</v>
       </c>
       <c r="W5" t="n">
-        <v>159.0</v>
+        <v>165.0</v>
       </c>
       <c r="X5" t="n">
         <v>30.0</v>
@@ -1171,7 +1171,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>2044.0</v>
+        <v>2063.0</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -1195,7 +1195,7 @@
         <v>194</v>
       </c>
       <c r="J6" t="n">
-        <v>28.2</v>
+        <v>29.0</v>
       </c>
       <c r="K6" t="n">
         <v>6.0</v>
@@ -1207,7 +1207,7 @@
         <v>0.0</v>
       </c>
       <c r="N6" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="O6" t="n">
         <v>27.0</v>
@@ -1216,13 +1216,13 @@
         <v>3.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>215.0</v>
+        <v>220.0</v>
       </c>
       <c r="R6" t="n">
         <v>4.0</v>
       </c>
       <c r="S6" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="T6" t="n">
         <v>0.0</v>
@@ -1234,16 +1234,16 @@
         <v>0.0</v>
       </c>
       <c r="W6" t="n">
-        <v>95.0</v>
+        <v>99.0</v>
       </c>
       <c r="X6" t="n">
         <v>13.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>27.1</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="7">
@@ -1251,7 +1251,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>2713.0</v>
+        <v>2738.0</v>
       </c>
       <c r="C7" t="s">
         <v>76</v>
@@ -1275,7 +1275,7 @@
         <v>197</v>
       </c>
       <c r="J7" t="n">
-        <v>16.8</v>
+        <v>17.0</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -1290,7 +1290,7 @@
         <v>20.0</v>
       </c>
       <c r="O7" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="P7" t="n">
         <v>5.0</v>
@@ -1331,7 +1331,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>1012.0</v>
+        <v>1020.0</v>
       </c>
       <c r="C8" t="s">
         <v>77</v>
@@ -1411,7 +1411,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>2160.0</v>
+        <v>2181.0</v>
       </c>
       <c r="C9" t="s">
         <v>78</v>
@@ -1491,19 +1491,19 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>780.0</v>
+        <v>2221.0</v>
       </c>
       <c r="C10" t="s">
         <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G10" t="s">
         <v>146</v>
@@ -1512,10 +1512,10 @@
         <v>155</v>
       </c>
       <c r="I10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J10" t="n">
-        <v>29.2</v>
+        <v>35.4</v>
       </c>
       <c r="K10" t="n">
         <v>5.0</v>
@@ -1527,43 +1527,43 @@
         <v>0.0</v>
       </c>
       <c r="N10" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V10" t="n">
         <v>2.0</v>
       </c>
-      <c r="O10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W10" t="n">
-        <v>50.0</v>
+        <v>225.0</v>
       </c>
       <c r="X10" t="n">
-        <v>8.0</v>
+        <v>42.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>100.0</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="11">
@@ -1571,19 +1571,19 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>2157.0</v>
+        <v>787.0</v>
       </c>
       <c r="C11" t="s">
         <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G11" t="s">
         <v>146</v>
@@ -1592,58 +1592,58 @@
         <v>156</v>
       </c>
       <c r="I11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J11" t="n">
-        <v>15.7</v>
+        <v>30.9</v>
       </c>
       <c r="K11" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N11" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="O11" t="n">
         <v>4.0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R11" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="T11" t="n">
         <v>0.0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="V11" t="n">
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>78.0</v>
+        <v>53.0</v>
       </c>
       <c r="X11" t="n">
-        <v>24.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>57.1</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="12">
@@ -1651,7 +1651,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>2163.0</v>
+        <v>717.0</v>
       </c>
       <c r="C12" t="s">
         <v>81</v>
@@ -1660,7 +1660,7 @@
         <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
         <v>144</v>
@@ -1672,58 +1672,58 @@
         <v>157</v>
       </c>
       <c r="I12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J12" t="n">
-        <v>15.2</v>
+        <v>15.8</v>
       </c>
       <c r="K12" t="n">
         <v>4.0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N12" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="O12" t="n">
-        <v>23.0</v>
+        <v>4.0</v>
       </c>
       <c r="P12" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c r="R12" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="S12" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="T12" t="n">
         <v>0.0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="V12" t="n">
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>58.0</v>
+        <v>65.0</v>
       </c>
       <c r="X12" t="n">
-        <v>12.0</v>
+        <v>25.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>34.3</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1731,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>2200.0</v>
+        <v>2178.0</v>
       </c>
       <c r="C13" t="s">
         <v>82</v>
@@ -1752,58 +1752,58 @@
         <v>158</v>
       </c>
       <c r="I13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J13" t="n">
-        <v>34.4</v>
+        <v>15.7</v>
       </c>
       <c r="K13" t="n">
         <v>4.0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N13" t="n">
-        <v>31.0</v>
+        <v>8.0</v>
       </c>
       <c r="O13" t="n">
-        <v>20.0</v>
+        <v>4.0</v>
       </c>
       <c r="P13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.0</v>
+        <v>1.0</v>
       </c>
       <c r="R13" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W13" t="n">
         <v>78.0</v>
       </c>
-      <c r="S13" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>220.0</v>
-      </c>
       <c r="X13" t="n">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>61.8</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="14">
@@ -1811,7 +1811,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>48.0</v>
+        <v>2184.0</v>
       </c>
       <c r="C14" t="s">
         <v>83</v>
@@ -1820,10 +1820,10 @@
         <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
         <v>146</v>
@@ -1832,58 +1832,58 @@
         <v>159</v>
       </c>
       <c r="I14" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="J14" t="n">
-        <v>25.1</v>
+        <v>15.7</v>
       </c>
       <c r="K14" t="n">
         <v>4.0</v>
       </c>
       <c r="L14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N14" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="O14" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.0</v>
+        <v>35.0</v>
       </c>
       <c r="R14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>23.0</v>
       </c>
-      <c r="S14" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>27.0</v>
-      </c>
       <c r="Z14" t="n">
-        <v>49.1</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="15">
@@ -1891,7 +1891,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>477.0</v>
+        <v>49.0</v>
       </c>
       <c r="C15" t="s">
         <v>84</v>
@@ -1900,10 +1900,10 @@
         <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
         <v>146</v>
@@ -1915,34 +1915,34 @@
         <v>193</v>
       </c>
       <c r="J15" t="n">
-        <v>28.3</v>
+        <v>27.1</v>
       </c>
       <c r="K15" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N15" t="n">
-        <v>22.0</v>
+        <v>17.0</v>
       </c>
       <c r="O15" t="n">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
       <c r="P15" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.0</v>
+        <v>9.0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.0</v>
+        <v>23.0</v>
       </c>
       <c r="S15" t="n">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="T15" t="n">
         <v>0.0</v>
@@ -1954,16 +1954,16 @@
         <v>0.0</v>
       </c>
       <c r="W15" t="n">
-        <v>117.0</v>
+        <v>141.0</v>
       </c>
       <c r="X15" t="n">
-        <v>35.0</v>
+        <v>26.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>32.0</v>
+        <v>27.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>52.2</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="16">
@@ -1971,7 +1971,7 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>1213.0</v>
+        <v>1364.0</v>
       </c>
       <c r="C16" t="s">
         <v>85</v>
@@ -1980,10 +1980,10 @@
         <v>127</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
         <v>146</v>
@@ -1992,37 +1992,37 @@
         <v>161</v>
       </c>
       <c r="I16" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="J16" t="n">
-        <v>14.5</v>
+        <v>17.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M16" t="n">
         <v>0.0</v>
       </c>
       <c r="N16" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="O16" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="P16" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="R16" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="S16" t="n">
-        <v>12.0</v>
+        <v>25.0</v>
       </c>
       <c r="T16" t="n">
         <v>0.0</v>
@@ -2034,16 +2034,16 @@
         <v>0.0</v>
       </c>
       <c r="W16" t="n">
-        <v>43.0</v>
+        <v>72.0</v>
       </c>
       <c r="X16" t="n">
-        <v>44.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>43.1</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="17">
@@ -2051,7 +2051,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>1437.0</v>
+        <v>482.0</v>
       </c>
       <c r="C17" t="s">
         <v>86</v>
@@ -2060,7 +2060,7 @@
         <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F17" t="s">
         <v>144</v>
@@ -2072,10 +2072,10 @@
         <v>162</v>
       </c>
       <c r="I17" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="J17" t="n">
-        <v>36.0</v>
+        <v>29.3</v>
       </c>
       <c r="K17" t="n">
         <v>3.0</v>
@@ -2087,22 +2087,22 @@
         <v>0.0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="O17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P17" t="n">
         <v>3.0</v>
       </c>
-      <c r="P17" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q17" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="T17" t="n">
         <v>0.0</v>
@@ -2111,19 +2111,19 @@
         <v>0.0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>55.0</v>
+        <v>119.0</v>
       </c>
       <c r="X17" t="n">
-        <v>10.0</v>
+        <v>35.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.0</v>
+        <v>32.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>90.9</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="18">
@@ -2131,7 +2131,7 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>1507.0</v>
+        <v>1222.0</v>
       </c>
       <c r="C18" t="s">
         <v>87</v>
@@ -2140,7 +2140,7 @@
         <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F18" t="s">
         <v>144</v>
@@ -2152,37 +2152,37 @@
         <v>163</v>
       </c>
       <c r="I18" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="J18" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="K18" t="n">
         <v>3.0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M18" t="n">
         <v>0.0</v>
       </c>
       <c r="N18" t="n">
-        <v>27.0</v>
+        <v>17.0</v>
       </c>
       <c r="O18" t="n">
-        <v>9.0</v>
+        <v>20.0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="R18" t="n">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="S18" t="n">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="T18" t="n">
         <v>0.0</v>
@@ -2194,16 +2194,16 @@
         <v>0.0</v>
       </c>
       <c r="W18" t="n">
-        <v>65.0</v>
+        <v>43.0</v>
       </c>
       <c r="X18" t="n">
-        <v>11.0</v>
+        <v>44.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.0</v>
+        <v>58.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>57.9</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="19">
@@ -2211,19 +2211,19 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>728.0</v>
+        <v>1449.0</v>
       </c>
       <c r="C19" t="s">
         <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G19" t="s">
         <v>146</v>
@@ -2232,10 +2232,10 @@
         <v>164</v>
       </c>
       <c r="I19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J19" t="n">
-        <v>16.3</v>
+        <v>37.0</v>
       </c>
       <c r="K19" t="n">
         <v>3.0</v>
@@ -2247,43 +2247,43 @@
         <v>0.0</v>
       </c>
       <c r="N19" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="O19" t="n">
-        <v>28.0</v>
+        <v>3.0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>59.0</v>
+        <v>0.0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="S19" t="n">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U19" t="n">
         <v>0.0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W19" t="n">
-        <v>72.0</v>
+        <v>56.0</v>
       </c>
       <c r="X19" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>50.0</v>
+        <v>90.9</v>
       </c>
     </row>
     <row r="20">
@@ -2291,19 +2291,19 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>1059.0</v>
+        <v>1519.0</v>
       </c>
       <c r="C20" t="s">
         <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
         <v>146</v>
@@ -2312,10 +2312,10 @@
         <v>165</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="J20" t="n">
-        <v>22.9</v>
+        <v>12.5</v>
       </c>
       <c r="K20" t="n">
         <v>3.0</v>
@@ -2327,25 +2327,25 @@
         <v>0.0</v>
       </c>
       <c r="N20" t="n">
-        <v>20.0</v>
+        <v>27.0</v>
       </c>
       <c r="O20" t="n">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q20" t="n">
-        <v>32.0</v>
+        <v>4.0</v>
       </c>
       <c r="R20" t="n">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="S20" t="n">
-        <v>30.0</v>
+        <v>19.0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U20" t="n">
         <v>0.0</v>
@@ -2354,16 +2354,16 @@
         <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>137.0</v>
+        <v>65.0</v>
       </c>
       <c r="X20" t="n">
-        <v>30.0</v>
+        <v>11.0</v>
       </c>
       <c r="Y20" t="n">
-        <v>22.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>57.7</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="21">
@@ -2371,16 +2371,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>1354.0</v>
+        <v>735.0</v>
       </c>
       <c r="C21" t="s">
         <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F21" t="s">
         <v>145</v>
@@ -2392,10 +2392,10 @@
         <v>166</v>
       </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="J21" t="n">
-        <v>15.3</v>
+        <v>16.7</v>
       </c>
       <c r="K21" t="n">
         <v>3.0</v>
@@ -2410,22 +2410,22 @@
         <v>14.0</v>
       </c>
       <c r="O21" t="n">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="R21" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="S21" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U21" t="n">
         <v>0.0</v>
@@ -2434,16 +2434,16 @@
         <v>0.0</v>
       </c>
       <c r="W21" t="n">
-        <v>66.0</v>
+        <v>72.0</v>
       </c>
       <c r="X21" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>57.1</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="22">
@@ -2451,19 +2451,19 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>22.0</v>
+        <v>1067.0</v>
       </c>
       <c r="C22" t="s">
         <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E22" t="s">
         <v>139</v>
       </c>
       <c r="F22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G22" t="s">
         <v>146</v>
@@ -2472,40 +2472,40 @@
         <v>167</v>
       </c>
       <c r="I22" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="J22" t="n">
-        <v>18.0</v>
+        <v>24.9</v>
       </c>
       <c r="K22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="P22" t="n">
         <v>2.0</v>
       </c>
-      <c r="L22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q22" t="n">
-        <v>1.0</v>
+        <v>33.0</v>
       </c>
       <c r="R22" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="S22" t="n">
-        <v>11.0</v>
+        <v>32.0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U22" t="n">
         <v>0.0</v>
@@ -2514,16 +2514,16 @@
         <v>0.0</v>
       </c>
       <c r="W22" t="n">
-        <v>43.0</v>
+        <v>144.0</v>
       </c>
       <c r="X22" t="n">
-        <v>56.0</v>
+        <v>30.0</v>
       </c>
       <c r="Y22" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>66.7</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="23">
@@ -2531,16 +2531,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>418.0</v>
+        <v>23.0</v>
       </c>
       <c r="C23" t="s">
         <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F23" t="s">
         <v>144</v>
@@ -2552,10 +2552,10 @@
         <v>168</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J23" t="n">
-        <v>15.9</v>
+        <v>18.0</v>
       </c>
       <c r="K23" t="n">
         <v>2.0</v>
@@ -2567,43 +2567,43 @@
         <v>0.0</v>
       </c>
       <c r="N23" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="O23" t="n">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="P23" t="n">
         <v>0.0</v>
       </c>
       <c r="Q23" t="n">
-        <v>24.0</v>
+        <v>1.0</v>
       </c>
       <c r="R23" t="n">
-        <v>13.0</v>
+        <v>25.0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U23" t="n">
         <v>0.0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W23" t="n">
-        <v>101.0</v>
+        <v>43.0</v>
       </c>
       <c r="X23" t="n">
-        <v>14.0</v>
+        <v>56.0</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.0</v>
+        <v>28.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>70.0</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="24">
@@ -2611,7 +2611,7 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>710.0</v>
+        <v>422.0</v>
       </c>
       <c r="C24" t="s">
         <v>93</v>
@@ -2620,7 +2620,7 @@
         <v>132</v>
       </c>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F24" t="s">
         <v>144</v>
@@ -2632,10 +2632,10 @@
         <v>169</v>
       </c>
       <c r="I24" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J24" t="n">
-        <v>14.8</v>
+        <v>16.4</v>
       </c>
       <c r="K24" t="n">
         <v>2.0</v>
@@ -2647,43 +2647,43 @@
         <v>0.0</v>
       </c>
       <c r="N24" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="O24" t="n">
-        <v>4.0</v>
+        <v>23.0</v>
       </c>
       <c r="P24" t="n">
         <v>0.0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="R24" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="S24" t="n">
         <v>15.0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U24" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W24" t="n">
-        <v>64.0</v>
+        <v>104.0</v>
       </c>
       <c r="X24" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="Y24" t="n">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>57.5</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="25">
@@ -2691,7 +2691,7 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>1185.0</v>
+        <v>1193.0</v>
       </c>
       <c r="C25" t="s">
         <v>94</v>
@@ -2715,7 +2715,7 @@
         <v>194</v>
       </c>
       <c r="J25" t="n">
-        <v>22.4</v>
+        <v>23.4</v>
       </c>
       <c r="K25" t="n">
         <v>2.0</v>
@@ -2736,7 +2736,7 @@
         <v>4.0</v>
       </c>
       <c r="Q25" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="R25" t="n">
         <v>14.0</v>
@@ -2754,16 +2754,16 @@
         <v>0.0</v>
       </c>
       <c r="W25" t="n">
-        <v>138.0</v>
+        <v>142.0</v>
       </c>
       <c r="X25" t="n">
         <v>6.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>26.1</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="26">
@@ -2771,7 +2771,7 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>2520.0</v>
+        <v>2544.0</v>
       </c>
       <c r="C26" t="s">
         <v>95</v>
@@ -2851,7 +2851,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>2654.0</v>
+        <v>2678.0</v>
       </c>
       <c r="C27" t="s">
         <v>96</v>
@@ -2931,7 +2931,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>89.0</v>
+        <v>90.0</v>
       </c>
       <c r="C28" t="s">
         <v>97</v>
@@ -2955,7 +2955,7 @@
         <v>203</v>
       </c>
       <c r="J28" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="K28" t="n">
         <v>2.0</v>
@@ -2967,10 +2967,10 @@
         <v>0.0</v>
       </c>
       <c r="N28" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="O28" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="P28" t="n">
         <v>2.0</v>
@@ -2985,7 +2985,7 @@
         <v>13.0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U28" t="n">
         <v>0.0</v>
@@ -2994,7 +2994,7 @@
         <v>0.0</v>
       </c>
       <c r="W28" t="n">
-        <v>97.0</v>
+        <v>98.0</v>
       </c>
       <c r="X28" t="n">
         <v>4.0</v>
@@ -3011,13 +3011,13 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>644.0</v>
+        <v>650.0</v>
       </c>
       <c r="C29" t="s">
         <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
         <v>137</v>
@@ -3035,7 +3035,7 @@
         <v>200</v>
       </c>
       <c r="J29" t="n">
-        <v>11.0</v>
+        <v>12.6</v>
       </c>
       <c r="K29" t="n">
         <v>2.0</v>
@@ -3050,20 +3050,20 @@
         <v>11.0</v>
       </c>
       <c r="O29" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S29" t="n">
         <v>9.0</v>
       </c>
-      <c r="P29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>124.0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>7.0</v>
-      </c>
       <c r="T29" t="n">
         <v>0.0</v>
       </c>
@@ -3074,16 +3074,16 @@
         <v>0.0</v>
       </c>
       <c r="W29" t="n">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
       <c r="X29" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y29" t="n">
         <v>5.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>50.0</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="30">
@@ -3091,7 +3091,7 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>2460.0</v>
+        <v>877.0</v>
       </c>
       <c r="C30" t="s">
         <v>99</v>
@@ -3100,7 +3100,7 @@
         <v>122</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F30" t="s">
         <v>145</v>
@@ -3112,10 +3112,10 @@
         <v>175</v>
       </c>
       <c r="I30" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="J30" t="n">
-        <v>11.8</v>
+        <v>30.8</v>
       </c>
       <c r="K30" t="n">
         <v>2.0</v>
@@ -3127,43 +3127,43 @@
         <v>0.0</v>
       </c>
       <c r="N30" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="O30" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="P30" t="n">
         <v>5.0</v>
       </c>
-      <c r="P30" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q30" t="n">
-        <v>5.0</v>
+        <v>82.0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="S30" t="n">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="T30" t="n">
         <v>0.0</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V30" t="n">
         <v>0.0</v>
       </c>
       <c r="W30" t="n">
-        <v>46.0</v>
+        <v>123.0</v>
       </c>
       <c r="X30" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>73.7</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="31">
@@ -3171,7 +3171,7 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>2680.0</v>
+        <v>2483.0</v>
       </c>
       <c r="C31" t="s">
         <v>100</v>
@@ -3180,7 +3180,7 @@
         <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F31" t="s">
         <v>145</v>
@@ -3192,10 +3192,10 @@
         <v>176</v>
       </c>
       <c r="I31" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="J31" t="n">
-        <v>28.0</v>
+        <v>11.8</v>
       </c>
       <c r="K31" t="n">
         <v>2.0</v>
@@ -3207,22 +3207,22 @@
         <v>0.0</v>
       </c>
       <c r="N31" t="n">
-        <v>23.0</v>
+        <v>4.0</v>
       </c>
       <c r="O31" t="n">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
       <c r="P31" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q31" t="n">
-        <v>58.0</v>
+        <v>5.0</v>
       </c>
       <c r="R31" t="n">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.0</v>
+        <v>1.0</v>
       </c>
       <c r="T31" t="n">
         <v>0.0</v>
@@ -3234,16 +3234,16 @@
         <v>0.0</v>
       </c>
       <c r="W31" t="n">
-        <v>141.0</v>
+        <v>46.0</v>
       </c>
       <c r="X31" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>63.9</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="32">
@@ -3251,19 +3251,19 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>198.0</v>
+        <v>2704.0</v>
       </c>
       <c r="C32" t="s">
         <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G32" t="s">
         <v>146</v>
@@ -3272,13 +3272,13 @@
         <v>177</v>
       </c>
       <c r="I32" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6</v>
+        <v>29.7</v>
       </c>
       <c r="K32" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L32" t="n">
         <v>0.0</v>
@@ -3287,22 +3287,22 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>2.0</v>
+        <v>23.0</v>
       </c>
       <c r="O32" t="n">
-        <v>2.0</v>
+        <v>18.0</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.0</v>
+        <v>59.0</v>
       </c>
       <c r="R32" t="n">
-        <v>3.0</v>
+        <v>23.0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.0</v>
+        <v>23.0</v>
       </c>
       <c r="T32" t="n">
         <v>0.0</v>
@@ -3314,16 +3314,16 @@
         <v>0.0</v>
       </c>
       <c r="W32" t="n">
-        <v>5.0</v>
+        <v>146.0</v>
       </c>
       <c r="X32" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.0</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="33">
@@ -3331,16 +3331,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>1797.0</v>
+        <v>201.0</v>
       </c>
       <c r="C33" t="s">
         <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F33" t="s">
         <v>144</v>
@@ -3352,10 +3352,10 @@
         <v>178</v>
       </c>
       <c r="I33" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="J33" t="n">
-        <v>17.0</v>
+        <v>0.6</v>
       </c>
       <c r="K33" t="n">
         <v>1.0</v>
@@ -3367,23 +3367,23 @@
         <v>0.0</v>
       </c>
       <c r="N33" t="n">
-        <v>24.0</v>
+        <v>2.0</v>
       </c>
       <c r="O33" t="n">
-        <v>33.0</v>
+        <v>2.0</v>
       </c>
       <c r="P33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>4.0</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="R33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S33" t="n">
         <v>2.0</v>
       </c>
-      <c r="R33" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T33" t="n">
         <v>0.0</v>
       </c>
@@ -3394,16 +3394,16 @@
         <v>0.0</v>
       </c>
       <c r="W33" t="n">
-        <v>33.0</v>
+        <v>5.0</v>
       </c>
       <c r="X33" t="n">
-        <v>73.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y33" t="n">
-        <v>104.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z33" t="n">
-        <v>41.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -3411,16 +3411,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>2568.0</v>
+        <v>1814.0</v>
       </c>
       <c r="C34" t="s">
         <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F34" t="s">
         <v>144</v>
@@ -3432,10 +3432,10 @@
         <v>179</v>
       </c>
       <c r="I34" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="J34" t="n">
-        <v>2.8</v>
+        <v>17.7</v>
       </c>
       <c r="K34" t="n">
         <v>1.0</v>
@@ -3447,19 +3447,19 @@
         <v>0.0</v>
       </c>
       <c r="N34" t="n">
-        <v>3.0</v>
+        <v>24.0</v>
       </c>
       <c r="O34" t="n">
-        <v>3.0</v>
+        <v>34.0</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q34" t="n">
-        <v>21.0</v>
+        <v>2.0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="S34" t="n">
         <v>3.0</v>
@@ -3474,16 +3474,16 @@
         <v>0.0</v>
       </c>
       <c r="W34" t="n">
-        <v>10.0</v>
+        <v>34.0</v>
       </c>
       <c r="X34" t="n">
-        <v>7.0</v>
+        <v>74.0</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.0</v>
+        <v>108.0</v>
       </c>
       <c r="Z34" t="n">
-        <v>70.0</v>
+        <v>40.7</v>
       </c>
     </row>
     <row r="35">
@@ -3491,16 +3491,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>2710.0</v>
+        <v>2592.0</v>
       </c>
       <c r="C35" t="s">
         <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F35" t="s">
         <v>144</v>
@@ -3512,10 +3512,10 @@
         <v>180</v>
       </c>
       <c r="I35" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J35" t="n">
-        <v>22.3</v>
+        <v>3.3</v>
       </c>
       <c r="K35" t="n">
         <v>1.0</v>
@@ -3527,22 +3527,22 @@
         <v>0.0</v>
       </c>
       <c r="N35" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="O35" t="n">
-        <v>30.0</v>
+        <v>3.0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q35" t="n">
-        <v>74.0</v>
+        <v>24.0</v>
       </c>
       <c r="R35" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="T35" t="n">
         <v>0.0</v>
@@ -3554,16 +3554,16 @@
         <v>0.0</v>
       </c>
       <c r="W35" t="n">
-        <v>99.0</v>
+        <v>10.0</v>
       </c>
       <c r="X35" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y35" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z35" t="n">
-        <v>37.5</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="36">
@@ -3571,19 +3571,19 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>870.0</v>
+        <v>2735.0</v>
       </c>
       <c r="C36" t="s">
         <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G36" t="s">
         <v>146</v>
@@ -3592,10 +3592,10 @@
         <v>181</v>
       </c>
       <c r="I36" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J36" t="n">
-        <v>28.9</v>
+        <v>22.8</v>
       </c>
       <c r="K36" t="n">
         <v>1.0</v>
@@ -3607,43 +3607,43 @@
         <v>0.0</v>
       </c>
       <c r="N36" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="O36" t="n">
-        <v>54.0</v>
+        <v>30.0</v>
       </c>
       <c r="P36" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q36" t="n">
-        <v>77.0</v>
+        <v>75.0</v>
       </c>
       <c r="R36" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="S36" t="n">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="T36" t="n">
         <v>0.0</v>
       </c>
       <c r="U36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V36" t="n">
         <v>0.0</v>
       </c>
       <c r="W36" t="n">
-        <v>118.0</v>
+        <v>99.0</v>
       </c>
       <c r="X36" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y36" t="n">
         <v>15.0</v>
       </c>
       <c r="Z36" t="n">
-        <v>28.6</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="37">
@@ -3651,7 +3651,7 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>1062.0</v>
+        <v>1070.0</v>
       </c>
       <c r="C37" t="s">
         <v>106</v>
@@ -3675,7 +3675,7 @@
         <v>203</v>
       </c>
       <c r="J37" t="n">
-        <v>25.5</v>
+        <v>27.4</v>
       </c>
       <c r="K37" t="n">
         <v>1.0</v>
@@ -3687,10 +3687,10 @@
         <v>0.0</v>
       </c>
       <c r="N37" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="O37" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="P37" t="n">
         <v>3.0</v>
@@ -3702,7 +3702,7 @@
         <v>2.0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="T37" t="n">
         <v>2.0</v>
@@ -3714,16 +3714,16 @@
         <v>0.0</v>
       </c>
       <c r="W37" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="X37" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="Y37" t="n">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
       <c r="Z37" t="n">
-        <v>48.6</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="38">
@@ -3731,7 +3731,7 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>1445.0</v>
+        <v>1457.0</v>
       </c>
       <c r="C38" t="s">
         <v>107</v>
@@ -3755,7 +3755,7 @@
         <v>207</v>
       </c>
       <c r="J38" t="n">
-        <v>8.9</v>
+        <v>9.0</v>
       </c>
       <c r="K38" t="n">
         <v>1.0</v>
@@ -3767,10 +3767,10 @@
         <v>0.0</v>
       </c>
       <c r="N38" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="O38" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="P38" t="n">
         <v>0.0</v>
@@ -3811,7 +3811,7 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>1082.0</v>
+        <v>1090.0</v>
       </c>
       <c r="C39" t="s">
         <v>108</v>
@@ -3891,13 +3891,13 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1740.0</v>
+        <v>1756.0</v>
       </c>
       <c r="C40" t="s">
         <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s">
         <v>140</v>
@@ -3971,7 +3971,7 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="C41" t="s">
         <v>110</v>
@@ -3995,7 +3995,7 @@
         <v>193</v>
       </c>
       <c r="J41" t="n">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="K41" t="n">
         <v>0.0</v>
@@ -4019,7 +4019,7 @@
         <v>11.0</v>
       </c>
       <c r="R41" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="S41" t="n">
         <v>16.0</v>
@@ -4034,7 +4034,7 @@
         <v>0.0</v>
       </c>
       <c r="W41" t="n">
-        <v>118.0</v>
+        <v>119.0</v>
       </c>
       <c r="X41" t="n">
         <v>46.0</v>
@@ -4051,7 +4051,7 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>324.0</v>
+        <v>327.0</v>
       </c>
       <c r="C42" t="s">
         <v>111</v>
@@ -4075,7 +4075,7 @@
         <v>209</v>
       </c>
       <c r="J42" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K42" t="n">
         <v>0.0</v>
@@ -4099,7 +4099,7 @@
         <v>5.0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="S42" t="n">
         <v>3.0</v>
@@ -4114,7 +4114,7 @@
         <v>0.0</v>
       </c>
       <c r="W42" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="X42" t="n">
         <v>1.0</v>
@@ -4131,7 +4131,7 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>689.0</v>
+        <v>696.0</v>
       </c>
       <c r="C43" t="s">
         <v>112</v>
@@ -4155,7 +4155,7 @@
         <v>197</v>
       </c>
       <c r="J43" t="n">
-        <v>25.4</v>
+        <v>27.4</v>
       </c>
       <c r="K43" t="n">
         <v>0.0</v>
@@ -4170,19 +4170,19 @@
         <v>23.0</v>
       </c>
       <c r="O43" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>13.0</v>
       </c>
-      <c r="P43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>12.0</v>
-      </c>
       <c r="R43" t="n">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="T43" t="n">
         <v>0.0</v>
@@ -4194,16 +4194,16 @@
         <v>1.0</v>
       </c>
       <c r="W43" t="n">
-        <v>104.0</v>
+        <v>107.0</v>
       </c>
       <c r="X43" t="n">
-        <v>39.0</v>
+        <v>45.0</v>
       </c>
       <c r="Y43" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="Z43" t="n">
-        <v>50.6</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="44">
@@ -4211,7 +4211,7 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>980.0</v>
+        <v>987.0</v>
       </c>
       <c r="C44" t="s">
         <v>113</v>
@@ -4291,7 +4291,7 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1401.0</v>
+        <v>1413.0</v>
       </c>
       <c r="C45" t="s">
         <v>114</v>
@@ -4371,7 +4371,7 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1885.0</v>
+        <v>1903.0</v>
       </c>
       <c r="C46" t="s">
         <v>115</v>
@@ -4451,13 +4451,13 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1953.0</v>
+        <v>1971.0</v>
       </c>
       <c r="C47" t="s">
         <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E47" t="s">
         <v>142</v>
@@ -4475,7 +4475,7 @@
         <v>201</v>
       </c>
       <c r="J47" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="K47" t="n">
         <v>0.0</v>
@@ -4646,7 +4646,7 @@
         <v>60</v>
       </c>
       <c r="B2" t="n">
-        <v>1062.0</v>
+        <v>1070.0</v>
       </c>
       <c r="C2" t="s">
         <v>106</v>
@@ -4670,34 +4670,34 @@
         <v>203</v>
       </c>
       <c r="J2" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K2" t="n">
         <v>28.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>26.0</v>
       </c>
       <c r="L2" t="e">
         <v>#N/A</v>
       </c>
       <c r="M2" t="n">
-        <v>25.5</v>
+        <v>27.4</v>
       </c>
       <c r="N2" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="O2" t="n">
         <v>5.0</v>
       </c>
       <c r="P2" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="R2" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="S2" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="T2" t="n">
         <v>1.0</v>
@@ -4706,54 +4706,54 @@
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>26.2</v>
+        <v>28.5</v>
       </c>
       <c r="W2" t="n">
-        <v>20.6</v>
+        <v>22.2</v>
       </c>
       <c r="X2" t="n">
         <v>4.3</v>
       </c>
       <c r="Y2" t="n">
-        <v>24.9</v>
+        <v>26.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.0</v>
+        <v>123.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B3" t="n">
-        <v>870.0</v>
+        <v>877.0</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
         <v>122</v>
@@ -4768,34 +4768,34 @@
         <v>146</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I3" t="s">
         <v>203</v>
       </c>
       <c r="J3" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="K3" t="n">
         <v>32.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>30.0</v>
       </c>
       <c r="L3" t="e">
         <v>#N/A</v>
       </c>
       <c r="M3" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="N3" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="O3" t="n">
         <v>8.0</v>
       </c>
       <c r="P3" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="R3" t="n">
         <v>0.0</v>
@@ -4804,46 +4804,46 @@
         <v>0.0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U3" t="n">
         <v>0.0</v>
       </c>
       <c r="V3" t="n">
-        <v>9.6</v>
+        <v>10.0</v>
       </c>
       <c r="W3" t="n">
-        <v>9.6</v>
+        <v>10.0</v>
       </c>
       <c r="X3" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.3</v>
+        <v>17.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>91.0</v>
+        <v>92.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.0</v>
+        <v>162.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.0</v>
+        <v>266.0</v>
       </c>
       <c r="AC3" t="n">
         <v>0.55</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="AF3" t="n">
         <v>0.55</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="AH3" t="n">
         <v>0.33</v>
@@ -4854,7 +4854,7 @@
         <v>51</v>
       </c>
       <c r="B4" t="n">
-        <v>89.0</v>
+        <v>90.0</v>
       </c>
       <c r="C4" t="s">
         <v>97</v>
@@ -4878,7 +4878,7 @@
         <v>203</v>
       </c>
       <c r="J4" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="K4" t="n">
         <v>31.0</v>
@@ -4887,25 +4887,25 @@
         <v>#N/A</v>
       </c>
       <c r="M4" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="N4" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="O4" t="n">
         <v>8.0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="Q4" t="n">
         <v>9.0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T4" t="n">
         <v>2.0</v>
@@ -4914,7 +4914,7 @@
         <v>0.0</v>
       </c>
       <c r="V4" t="n">
-        <v>12.2</v>
+        <v>13.0</v>
       </c>
       <c r="W4" t="n">
         <v>11.5</v>
@@ -4926,22 +4926,22 @@
         <v>17.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="AA4" t="n">
         <v>103.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>177.0</v>
+        <v>180.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="AD4" t="n">
         <v>0.27</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="AF4" t="n">
         <v>0.31</v>
@@ -4950,18 +4950,18 @@
         <v>0.58</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" t="n">
-        <v>1797.0</v>
+        <v>1814.0</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
         <v>120</v>
@@ -4976,22 +4976,22 @@
         <v>146</v>
       </c>
       <c r="H5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I5" t="s">
         <v>205</v>
       </c>
       <c r="J5" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="K5" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="L5" t="e">
         <v>#N/A</v>
       </c>
       <c r="M5" t="n">
-        <v>17.0</v>
+        <v>17.7</v>
       </c>
       <c r="N5" t="n">
         <v>9.0</v>
@@ -5018,16 +5018,16 @@
         <v>0.0</v>
       </c>
       <c r="V5" t="n">
-        <v>8.6</v>
+        <v>8.7</v>
       </c>
       <c r="W5" t="n">
-        <v>8.6</v>
+        <v>8.7</v>
       </c>
       <c r="X5" t="n">
         <v>2.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="Z5" t="n">
         <v>8.0</v>
@@ -5036,25 +5036,25 @@
         <v>19.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>74.0</v>
+        <v>76.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="AD5" t="n">
         <v>0.06</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="6">
@@ -5062,7 +5062,7 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>2204.0</v>
+        <v>2226.0</v>
       </c>
       <c r="C6" t="s">
         <v>72</v>
@@ -5086,16 +5086,16 @@
         <v>194</v>
       </c>
       <c r="J6" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="K6" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="L6" t="e">
         <v>#N/A</v>
       </c>
       <c r="M6" t="n">
-        <v>29.6</v>
+        <v>31.6</v>
       </c>
       <c r="N6" t="n">
         <v>7.0</v>
@@ -5122,57 +5122,57 @@
         <v>1.0</v>
       </c>
       <c r="V6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="W6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="X6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>344.0</v>
+        <v>362.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" t="n">
-        <v>2163.0</v>
+        <v>2184.0</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
         <v>140</v>
@@ -5184,22 +5184,22 @@
         <v>146</v>
       </c>
       <c r="H7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I7" t="s">
         <v>198</v>
       </c>
       <c r="J7" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="K7" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="L7" t="e">
         <v>#N/A</v>
       </c>
       <c r="M7" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="N7" t="n">
         <v>6.0</v>
@@ -5244,25 +5244,25 @@
         <v>46.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>91.0</v>
+        <v>92.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AD7" t="n">
         <v>0.13</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8">
@@ -5270,7 +5270,7 @@
         <v>27</v>
       </c>
       <c r="B8" t="n">
-        <v>2376.0</v>
+        <v>2399.0</v>
       </c>
       <c r="C8" t="s">
         <v>73</v>
@@ -5294,25 +5294,25 @@
         <v>195</v>
       </c>
       <c r="J8" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="K8" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="L8" t="e">
         <v>#N/A</v>
       </c>
       <c r="M8" t="n">
-        <v>25.6</v>
+        <v>27.6</v>
       </c>
       <c r="N8" t="n">
         <v>6.0</v>
       </c>
       <c r="O8" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="P8" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="Q8" t="n">
         <v>6.0</v>
@@ -5324,49 +5324,49 @@
         <v>0.0</v>
       </c>
       <c r="T8" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="U8" t="n">
         <v>0.0</v>
       </c>
       <c r="V8" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="W8" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="X8" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.1</v>
+        <v>11.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>125.0</v>
+        <v>134.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>162.0</v>
+        <v>171.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>235.0</v>
+        <v>251.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="9">
@@ -5374,7 +5374,7 @@
         <v>48</v>
       </c>
       <c r="B9" t="n">
-        <v>1185.0</v>
+        <v>1193.0</v>
       </c>
       <c r="C9" t="s">
         <v>94</v>
@@ -5398,16 +5398,16 @@
         <v>194</v>
       </c>
       <c r="J9" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="K9" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="L9" t="e">
         <v>#N/A</v>
       </c>
       <c r="M9" t="n">
-        <v>22.4</v>
+        <v>23.4</v>
       </c>
       <c r="N9" t="n">
         <v>5.0</v>
@@ -5446,45 +5446,45 @@
         <v>9.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>105.0</v>
+        <v>107.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>139.0</v>
+        <v>143.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>169.0</v>
+        <v>170.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AD9" t="n">
         <v>0.09</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" t="n">
-        <v>1213.0</v>
+        <v>1222.0</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
         <v>140</v>
@@ -5496,7 +5496,7 @@
         <v>146</v>
       </c>
       <c r="H10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I10" t="s">
         <v>200</v>
@@ -5582,7 +5582,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="n">
-        <v>1982.0</v>
+        <v>2001.0</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
@@ -5606,16 +5606,16 @@
         <v>193</v>
       </c>
       <c r="J11" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="K11" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="L11" t="e">
         <v>#N/A</v>
       </c>
       <c r="M11" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="N11" t="n">
         <v>4.0</v>
@@ -5657,7 +5657,7 @@
         <v>8.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>92.0</v>
+        <v>94.0</v>
       </c>
       <c r="AB11" t="n">
         <v>13.0</v>
@@ -5666,30 +5666,30 @@
         <v>0.14</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AF11" t="n">
         <v>0.14</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" t="n">
-        <v>2710.0</v>
+        <v>2735.0</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
         <v>120</v>
@@ -5704,22 +5704,22 @@
         <v>146</v>
       </c>
       <c r="H12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I12" t="s">
         <v>206</v>
       </c>
       <c r="J12" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="K12" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="L12" t="e">
         <v>#N/A</v>
       </c>
       <c r="M12" t="n">
-        <v>22.3</v>
+        <v>22.8</v>
       </c>
       <c r="N12" t="n">
         <v>4.0</v>
@@ -5758,10 +5758,10 @@
         <v>7.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>90.0</v>
+        <v>92.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>152.0</v>
+        <v>153.0</v>
       </c>
       <c r="AB12" t="n">
         <v>181.0</v>
@@ -5773,7 +5773,7 @@
         <v>0.09</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="AF12" t="n">
         <v>0.09</v>
@@ -5782,7 +5782,7 @@
         <v>0.18</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="13">
@@ -5790,13 +5790,13 @@
         <v>52</v>
       </c>
       <c r="B13" t="n">
-        <v>644.0</v>
+        <v>650.0</v>
       </c>
       <c r="C13" t="s">
         <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
         <v>137</v>
@@ -5814,25 +5814,25 @@
         <v>200</v>
       </c>
       <c r="J13" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="K13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>989.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="L13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M13" t="n">
-        <v>11.0</v>
+        <v>12.6</v>
       </c>
       <c r="N13" t="n">
         <v>4.0</v>
       </c>
       <c r="O13" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="P13" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="Q13" t="n">
         <v>4.0</v>
@@ -5850,164 +5850,164 @@
         <v>0.0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W13" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="X13" t="n">
-        <v>8.5</v>
+        <v>11.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.3</v>
+        <v>13.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>98.0</v>
+        <v>103.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>108.0</v>
+        <v>120.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B14" t="n">
-        <v>2044.0</v>
+        <v>1067.0</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
         <v>146</v>
       </c>
       <c r="H14" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="I14" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="J14" t="n">
-        <v>36.0</v>
+        <v>27.0</v>
       </c>
       <c r="K14" t="n">
-        <v>33.0</v>
+        <v>25.0</v>
       </c>
       <c r="L14" t="e">
         <v>#N/A</v>
       </c>
       <c r="M14" t="n">
-        <v>28.2</v>
+        <v>24.9</v>
       </c>
       <c r="N14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T14" t="n">
         <v>3.0</v>
       </c>
-      <c r="O14" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="U14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V14" t="n">
         <v>3.0</v>
       </c>
-      <c r="R14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>4.6</v>
-      </c>
       <c r="W14" t="n">
-        <v>4.6</v>
+        <v>3.0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.1</v>
+        <v>1.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.7</v>
+        <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>56.0</v>
+        <v>61.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>132.0</v>
+        <v>134.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>124.0</v>
+        <v>108.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="n">
-        <v>2713.0</v>
+        <v>2063.0</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F15" t="s">
         <v>144</v>
@@ -6016,31 +6016,31 @@
         <v>146</v>
       </c>
       <c r="H15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J15" t="n">
-        <v>33.0</v>
+        <v>37.0</v>
       </c>
       <c r="K15" t="n">
-        <v>15.0</v>
+        <v>34.0</v>
       </c>
       <c r="L15" t="e">
         <v>#N/A</v>
       </c>
       <c r="M15" t="n">
-        <v>16.8</v>
+        <v>29.0</v>
       </c>
       <c r="N15" t="n">
         <v>3.0</v>
       </c>
       <c r="O15" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="P15" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="Q15" t="n">
         <v>3.0</v>
@@ -6058,93 +6058,93 @@
         <v>0.0</v>
       </c>
       <c r="V15" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="W15" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="X15" t="n">
-        <v>3.0</v>
+        <v>7.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.2</v>
+        <v>11.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>37.0</v>
+        <v>56.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>55.0</v>
+        <v>138.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>124.0</v>
+        <v>125.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="AD15" t="n">
         <v>0.24</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B16" t="n">
-        <v>728.0</v>
+        <v>2738.0</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
         <v>146</v>
       </c>
       <c r="H16" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="I16" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J16" t="n">
-        <v>26.0</v>
+        <v>34.0</v>
       </c>
       <c r="K16" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="L16" t="e">
         <v>#N/A</v>
       </c>
       <c r="M16" t="n">
-        <v>16.3</v>
+        <v>17.0</v>
       </c>
       <c r="N16" t="n">
         <v>3.0</v>
       </c>
       <c r="O16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P16" t="n">
         <v>7.0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>10.0</v>
       </c>
       <c r="Q16" t="n">
         <v>3.0</v>
@@ -6156,63 +6156,63 @@
         <v>0.0</v>
       </c>
       <c r="T16" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="X16" t="n">
         <v>3.0</v>
       </c>
-      <c r="U16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="X16" t="n">
-        <v>4.4</v>
-      </c>
       <c r="Y16" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>196.0</v>
+        <v>39.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>57.0</v>
+        <v>56.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>276.0</v>
+        <v>124.0</v>
       </c>
       <c r="AC16" t="n">
         <v>0.18</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.43</v>
+        <v>0.24</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.61</v>
+        <v>0.41</v>
       </c>
       <c r="AF16" t="n">
         <v>0.18</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.61</v>
+        <v>0.41</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B17" t="n">
-        <v>1012.0</v>
+        <v>735.0</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
         <v>141</v>
@@ -6224,31 +6224,31 @@
         <v>146</v>
       </c>
       <c r="H17" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="I17" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="J17" t="n">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="K17" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="L17" t="e">
         <v>#N/A</v>
       </c>
       <c r="M17" t="n">
-        <v>11.2</v>
+        <v>16.7</v>
       </c>
       <c r="N17" t="n">
         <v>3.0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="P17" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="Q17" t="n">
         <v>3.0</v>
@@ -6260,102 +6260,102 @@
         <v>0.0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="U17" t="n">
         <v>0.0</v>
       </c>
       <c r="V17" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="W17" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="X17" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.6</v>
+        <v>6.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>87.0</v>
+        <v>202.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>50.0</v>
+        <v>57.0</v>
       </c>
       <c r="AB17" t="n">
-        <v>146.0</v>
+        <v>283.0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.09</v>
+        <v>0.42</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B18" t="n">
-        <v>22.0</v>
+        <v>1020.0</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
         <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
         <v>146</v>
       </c>
       <c r="H18" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="I18" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J18" t="n">
         <v>20.0</v>
       </c>
       <c r="K18" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="L18" t="e">
         <v>#N/A</v>
       </c>
       <c r="M18" t="n">
-        <v>18.0</v>
+        <v>11.2</v>
       </c>
       <c r="N18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="R18" t="n">
         <v>0.0</v>
@@ -6364,66 +6364,66 @@
         <v>0.0</v>
       </c>
       <c r="T18" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="U18" t="n">
         <v>0.0</v>
       </c>
       <c r="V18" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="W18" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="X18" t="n">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>10.0</v>
+        <v>87.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>62.0</v>
+        <v>50.0</v>
       </c>
       <c r="AB18" t="n">
-        <v>5.0</v>
+        <v>146.0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0</v>
+        <v>0.09</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.11</v>
+        <v>0.36</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.11</v>
+        <v>0.36</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B19" t="n">
-        <v>2654.0</v>
+        <v>23.0</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F19" t="s">
         <v>144</v>
@@ -6432,22 +6432,22 @@
         <v>146</v>
       </c>
       <c r="H19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="J19" t="n">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="K19" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>315.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="L19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M19" t="n">
-        <v>3.5</v>
+        <v>18.0</v>
       </c>
       <c r="N19" t="n">
         <v>2.0</v>
@@ -6474,84 +6474,84 @@
         <v>0.0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="W19" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="X19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y19" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y19" t="n">
-        <v>2.4</v>
-      </c>
       <c r="Z19" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>3.0</v>
+        <v>62.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.57</v>
+        <v>0.11</v>
       </c>
       <c r="AD19" t="n">
         <v>0.0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.57</v>
+        <v>0.11</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.57</v>
+        <v>0.11</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.57</v>
+        <v>0.11</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.46</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B20" t="n">
-        <v>48.0</v>
+        <v>2678.0</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
         <v>146</v>
       </c>
       <c r="H20" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="I20" t="s">
         <v>193</v>
       </c>
       <c r="J20" t="n">
-        <v>27.0</v>
+        <v>13.0</v>
       </c>
       <c r="K20" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="L20" t="e">
-        <v>#N/A</v>
+        <v>2.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>315.0</v>
       </c>
       <c r="M20" t="n">
-        <v>25.1</v>
+        <v>3.5</v>
       </c>
       <c r="N20" t="n">
         <v>2.0</v>
@@ -6572,66 +6572,66 @@
         <v>0.0</v>
       </c>
       <c r="T20" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="W20" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="X20" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>42.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>133.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>34.0</v>
+        <v>13.0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.08</v>
+        <v>0.57</v>
       </c>
       <c r="AD20" t="n">
         <v>0.0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.08</v>
+        <v>0.57</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.08</v>
+        <v>0.57</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.08</v>
+        <v>0.57</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B21" t="n">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F21" t="s">
         <v>145</v>
@@ -6640,31 +6640,31 @@
         <v>146</v>
       </c>
       <c r="H21" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="I21" t="s">
         <v>193</v>
       </c>
       <c r="J21" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="K21" t="n">
         <v>27.0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>23.0</v>
       </c>
       <c r="L21" t="e">
         <v>#N/A</v>
       </c>
       <c r="M21" t="n">
-        <v>22.2</v>
+        <v>27.1</v>
       </c>
       <c r="N21" t="n">
         <v>2.0</v>
       </c>
       <c r="O21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P21" t="n">
         <v>2.0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4.0</v>
       </c>
       <c r="Q21" t="n">
         <v>2.0</v>
@@ -6676,63 +6676,63 @@
         <v>0.0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V21" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="W21" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="X21" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>24.0</v>
+        <v>45.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>113.0</v>
+        <v>143.0</v>
       </c>
       <c r="AB21" t="n">
-        <v>18.0</v>
+        <v>36.0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.09</v>
+        <v>0.0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.18</v>
+        <v>0.07</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.18</v>
+        <v>0.07</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B22" t="n">
-        <v>1059.0</v>
+        <v>51.0</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
         <v>139</v>
@@ -6744,31 +6744,31 @@
         <v>146</v>
       </c>
       <c r="H22" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="J22" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="K22" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="L22" t="e">
         <v>#N/A</v>
       </c>
       <c r="M22" t="n">
-        <v>22.9</v>
+        <v>22.5</v>
       </c>
       <c r="N22" t="n">
         <v>2.0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P22" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q22" t="n">
         <v>2.0</v>
@@ -6780,49 +6780,49 @@
         <v>0.0</v>
       </c>
       <c r="T22" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="U22" t="n">
         <v>0.0</v>
       </c>
       <c r="V22" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="W22" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="X22" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>56.0</v>
+        <v>24.0</v>
       </c>
       <c r="AA22" t="n">
-        <v>123.0</v>
+        <v>116.0</v>
       </c>
       <c r="AB22" t="n">
-        <v>92.0</v>
+        <v>18.0</v>
       </c>
       <c r="AC22" t="n">
         <v>0.09</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="AF22" t="n">
         <v>0.09</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="23">
@@ -6830,7 +6830,7 @@
         <v>61</v>
       </c>
       <c r="B23" t="n">
-        <v>1445.0</v>
+        <v>1457.0</v>
       </c>
       <c r="C23" t="s">
         <v>107</v>
@@ -6854,16 +6854,16 @@
         <v>207</v>
       </c>
       <c r="J23" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="K23" t="n">
         <v>8.0</v>
       </c>
       <c r="L23" t="n">
-        <v>800.0</v>
+        <v>809.0</v>
       </c>
       <c r="M23" t="n">
-        <v>8.9</v>
+        <v>9.0</v>
       </c>
       <c r="N23" t="n">
         <v>2.0</v>
@@ -6902,28 +6902,28 @@
         <v>1.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="AA23" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="AB23" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AD23" t="n">
         <v>0.0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AH23" t="n">
         <v>0.07</v>
@@ -6934,7 +6934,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>230.0</v>
+        <v>233.0</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
@@ -6958,16 +6958,16 @@
         <v>196</v>
       </c>
       <c r="J24" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="K24" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="L24" t="e">
         <v>#N/A</v>
       </c>
       <c r="M24" t="n">
-        <v>23.6</v>
+        <v>24.6</v>
       </c>
       <c r="N24" t="n">
         <v>1.0</v>
@@ -7035,16 +7035,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" t="n">
-        <v>418.0</v>
+        <v>422.0</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E25" t="s">
         <v>137</v>
@@ -7056,13 +7056,13 @@
         <v>146</v>
       </c>
       <c r="H25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I25" t="s">
         <v>200</v>
       </c>
       <c r="J25" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="K25" t="n">
         <v>14.0</v>
@@ -7071,7 +7071,7 @@
         <v>#N/A</v>
       </c>
       <c r="M25" t="n">
-        <v>15.9</v>
+        <v>16.4</v>
       </c>
       <c r="N25" t="n">
         <v>1.0</v>
@@ -7122,33 +7122,33 @@
         <v>0.06</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="AF25" t="n">
         <v>0.06</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26" t="n">
-        <v>477.0</v>
+        <v>482.0</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
         <v>139</v>
@@ -7160,22 +7160,22 @@
         <v>146</v>
       </c>
       <c r="H26" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I26" t="s">
         <v>193</v>
       </c>
       <c r="J26" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="K26" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="L26" t="e">
         <v>#N/A</v>
       </c>
       <c r="M26" t="n">
-        <v>28.3</v>
+        <v>29.3</v>
       </c>
       <c r="N26" t="n">
         <v>1.0</v>
@@ -7220,19 +7220,19 @@
         <v>77.0</v>
       </c>
       <c r="AB26" t="n">
-        <v>111.0</v>
+        <v>113.0</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AE26" t="n">
         <v>0.14</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AG26" t="n">
         <v>0.14</v>
@@ -7243,16 +7243,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" t="n">
-        <v>1507.0</v>
+        <v>1519.0</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
         <v>137</v>
@@ -7264,7 +7264,7 @@
         <v>146</v>
       </c>
       <c r="H27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I27" t="s">
         <v>194</v>
@@ -7347,13 +7347,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>2157.0</v>
+        <v>2178.0</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
         <v>123</v>
@@ -7368,7 +7368,7 @@
         <v>146</v>
       </c>
       <c r="H28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I28" t="s">
         <v>199</v>
@@ -7454,7 +7454,7 @@
         <v>49</v>
       </c>
       <c r="B29" t="n">
-        <v>2520.0</v>
+        <v>2544.0</v>
       </c>
       <c r="C29" t="s">
         <v>95</v>
@@ -7555,13 +7555,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" t="n">
-        <v>2568.0</v>
+        <v>2592.0</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
         <v>118</v>
@@ -7576,22 +7576,22 @@
         <v>146</v>
       </c>
       <c r="H30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I30" t="s">
         <v>194</v>
       </c>
       <c r="J30" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="K30" t="n">
         <v>0.0</v>
       </c>
       <c r="L30" t="n">
-        <v>254.0</v>
+        <v>299.0</v>
       </c>
       <c r="M30" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N30" t="n">
         <v>1.0</v>
@@ -7630,31 +7630,31 @@
         <v>1.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="AA30" t="n">
         <v>13.0</v>
       </c>
       <c r="AB30" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.71</v>
+        <v>0.6</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.06</v>
+        <v>0.9</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="AG30" t="n">
-        <v>1.06</v>
+        <v>0.9</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="31">
@@ -7662,7 +7662,7 @@
         <v>65</v>
       </c>
       <c r="B31" t="n">
-        <v>324.0</v>
+        <v>327.0</v>
       </c>
       <c r="C31" t="s">
         <v>111</v>
@@ -7686,16 +7686,16 @@
         <v>209</v>
       </c>
       <c r="J31" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="K31" t="n">
         <v>2.0</v>
       </c>
       <c r="L31" t="n">
-        <v>293.0</v>
+        <v>302.0</v>
       </c>
       <c r="M31" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N31" t="n">
         <v>1.0</v>
@@ -7734,45 +7734,45 @@
         <v>2.6</v>
       </c>
       <c r="Z31" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA31" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="AB31" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B32" t="n">
-        <v>1354.0</v>
+        <v>1364.0</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E32" t="s">
         <v>137</v>
@@ -7784,22 +7784,22 @@
         <v>146</v>
       </c>
       <c r="H32" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I32" t="s">
         <v>195</v>
       </c>
       <c r="J32" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="K32" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="L32" t="e">
         <v>#N/A</v>
       </c>
       <c r="M32" t="n">
-        <v>15.3</v>
+        <v>17.2</v>
       </c>
       <c r="N32" t="n">
         <v>1.0</v>
@@ -7820,60 +7820,60 @@
         <v>0.0</v>
       </c>
       <c r="T32" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="U32" t="n">
         <v>0.0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="W32" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="X32" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Z32" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="AA32" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="AB32" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="AC32" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AH32" t="n">
         <v>0.07</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0.08</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" t="n">
-        <v>2460.0</v>
+        <v>2483.0</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
         <v>122</v>
@@ -7888,7 +7888,7 @@
         <v>146</v>
       </c>
       <c r="H33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I33" t="s">
         <v>195</v>
@@ -7971,13 +7971,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34" t="n">
-        <v>198.0</v>
+        <v>201.0</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
         <v>135</v>
@@ -7992,7 +7992,7 @@
         <v>146</v>
       </c>
       <c r="H34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I34" t="s">
         <v>197</v>
@@ -8075,16 +8075,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>710.0</v>
+        <v>717.0</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
         <v>139</v>
@@ -8096,22 +8096,22 @@
         <v>146</v>
       </c>
       <c r="H35" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I35" t="s">
         <v>197</v>
       </c>
       <c r="J35" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="K35" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="L35" t="e">
         <v>#N/A</v>
       </c>
       <c r="M35" t="n">
-        <v>14.8</v>
+        <v>15.8</v>
       </c>
       <c r="N35" t="n">
         <v>0.0</v>
@@ -8132,10 +8132,10 @@
         <v>0.0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V35" t="n">
         <v>0.3</v>
@@ -8182,7 +8182,7 @@
         <v>62</v>
       </c>
       <c r="B36" t="n">
-        <v>1082.0</v>
+        <v>1090.0</v>
       </c>
       <c r="C36" t="s">
         <v>108</v>
@@ -8283,16 +8283,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>1437.0</v>
+        <v>1449.0</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
         <v>142</v>
@@ -8304,22 +8304,22 @@
         <v>146</v>
       </c>
       <c r="H37" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I37" t="s">
         <v>201</v>
       </c>
       <c r="J37" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="K37" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="L37" t="e">
         <v>#N/A</v>
       </c>
       <c r="M37" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
@@ -8390,13 +8390,13 @@
         <v>63</v>
       </c>
       <c r="B38" t="n">
-        <v>1740.0</v>
+        <v>1756.0</v>
       </c>
       <c r="C38" t="s">
         <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
         <v>140</v>
@@ -8494,7 +8494,7 @@
         <v>32</v>
       </c>
       <c r="B39" t="n">
-        <v>2160.0</v>
+        <v>2181.0</v>
       </c>
       <c r="C39" t="s">
         <v>78</v>
@@ -8595,13 +8595,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B40" t="n">
-        <v>2200.0</v>
+        <v>2221.0</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
         <v>123</v>
@@ -8616,22 +8616,22 @@
         <v>146</v>
       </c>
       <c r="H40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I40" t="s">
         <v>197</v>
       </c>
       <c r="J40" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="K40" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="L40" t="e">
         <v>#N/A</v>
       </c>
       <c r="M40" t="n">
-        <v>34.4</v>
+        <v>35.4</v>
       </c>
       <c r="N40" t="n">
         <v>0.0</v>
@@ -8652,7 +8652,7 @@
         <v>0.0</v>
       </c>
       <c r="T40" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="U40" t="n">
         <v>0.0</v>
@@ -8670,13 +8670,13 @@
         <v>4.8</v>
       </c>
       <c r="Z40" t="n">
-        <v>95.0</v>
+        <v>97.0</v>
       </c>
       <c r="AA40" t="n">
         <v>123.0</v>
       </c>
       <c r="AB40" t="n">
-        <v>189.0</v>
+        <v>192.0</v>
       </c>
       <c r="AC40" t="n">
         <v>0.0</v>
@@ -8702,7 +8702,7 @@
         <v>66</v>
       </c>
       <c r="B41" t="n">
-        <v>689.0</v>
+        <v>696.0</v>
       </c>
       <c r="C41" t="s">
         <v>112</v>
@@ -8726,16 +8726,16 @@
         <v>197</v>
       </c>
       <c r="J41" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="K41" t="n">
         <v>27.0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>25.0</v>
       </c>
       <c r="L41" t="e">
         <v>#N/A</v>
       </c>
       <c r="M41" t="n">
-        <v>25.4</v>
+        <v>27.4</v>
       </c>
       <c r="N41" t="n">
         <v>0.0</v>
@@ -8777,7 +8777,7 @@
         <v>34.0</v>
       </c>
       <c r="AA41" t="n">
-        <v>166.0</v>
+        <v>171.0</v>
       </c>
       <c r="AB41" t="n">
         <v>15.0</v>
@@ -8798,18 +8798,18 @@
         <v>0.0</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B42" t="n">
-        <v>780.0</v>
+        <v>787.0</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
         <v>120</v>
@@ -8824,22 +8824,22 @@
         <v>146</v>
       </c>
       <c r="H42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I42" t="s">
         <v>198</v>
       </c>
       <c r="J42" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="K42" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="L42" t="e">
         <v>#N/A</v>
       </c>
       <c r="M42" t="n">
-        <v>29.2</v>
+        <v>30.9</v>
       </c>
       <c r="N42" t="n">
         <v>0.0</v>
@@ -8910,7 +8910,7 @@
         <v>67</v>
       </c>
       <c r="B43" t="n">
-        <v>980.0</v>
+        <v>987.0</v>
       </c>
       <c r="C43" t="s">
         <v>113</v>
@@ -9014,7 +9014,7 @@
         <v>68</v>
       </c>
       <c r="B44" t="n">
-        <v>1401.0</v>
+        <v>1413.0</v>
       </c>
       <c r="C44" t="s">
         <v>114</v>
@@ -9118,7 +9118,7 @@
         <v>69</v>
       </c>
       <c r="B45" t="n">
-        <v>1885.0</v>
+        <v>1903.0</v>
       </c>
       <c r="C45" t="s">
         <v>115</v>
@@ -9222,13 +9222,13 @@
         <v>70</v>
       </c>
       <c r="B46" t="n">
-        <v>1953.0</v>
+        <v>1971.0</v>
       </c>
       <c r="C46" t="s">
         <v>116</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
         <v>142</v>
@@ -9246,16 +9246,16 @@
         <v>201</v>
       </c>
       <c r="J46" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="K46" t="n">
         <v>4.0</v>
       </c>
       <c r="L46" t="n">
-        <v>523.0</v>
+        <v>545.0</v>
       </c>
       <c r="M46" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="N46" t="n">
         <v>0.0</v>
@@ -9323,13 +9323,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>2680.0</v>
+        <v>2704.0</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
         <v>122</v>
@@ -9344,22 +9344,22 @@
         <v>146</v>
       </c>
       <c r="H47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I47" t="s">
         <v>204</v>
       </c>
       <c r="J47" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="K47" t="n">
         <v>29.0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>28.0</v>
       </c>
       <c r="L47" t="e">
         <v>#N/A</v>
       </c>
       <c r="M47" t="n">
-        <v>28.0</v>
+        <v>29.7</v>
       </c>
       <c r="N47" t="n">
         <v>0.0</v>
@@ -9398,28 +9398,28 @@
         <v>3.0</v>
       </c>
       <c r="Z47" t="n">
-        <v>70.0</v>
+        <v>72.0</v>
       </c>
       <c r="AA47" t="n">
-        <v>146.0</v>
+        <v>151.0</v>
       </c>
       <c r="AB47" t="n">
-        <v>165.0</v>
+        <v>172.0</v>
       </c>
       <c r="AC47" t="n">
         <v>0.0</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AF47" t="n">
         <v>0.0</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AH47" t="n">
         <v>0.01</v>
